--- a/doc/log/log_201608040122LiuYiMin.xlsx
+++ b/doc/log/log_201608040122LiuYiMin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE4E219F-E37F-4960-8329-DECA89B5B86D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18E9A8B8-BD07-4A7D-8E0C-4BD9AE6607CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,45 @@
   </si>
   <si>
     <t>商户模块需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:01</t>
+  </si>
+  <si>
+    <t>13:00-17:02</t>
+  </si>
+  <si>
+    <t>13:00-17:03</t>
+  </si>
+  <si>
+    <t>13:00-17:04</t>
+  </si>
+  <si>
+    <t>13:00-17:05</t>
+  </si>
+  <si>
+    <t>13:00-17:06</t>
+  </si>
+  <si>
+    <t>13:00-17:07</t>
+  </si>
+  <si>
+    <t>13:00-17:08</t>
+  </si>
+  <si>
+    <t>13:00-17:09</t>
+  </si>
+  <si>
+    <t>service层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体架构说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,12 +316,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -290,9 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,376 +622,327 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -969,6 +959,55 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,282 +1020,311 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>43191</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>43237</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>43265</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>43271</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="6">
+        <v>43272</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="6">
+        <v>43274</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="6">
+        <v>43275</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="6">
+        <v>43276</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="6">
+        <v>43277</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="6">
+        <v>43278</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="6">
+        <v>43279</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="6">
+        <v>43284</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1272,16 +1340,41 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040122LiuYiMin.xlsx
+++ b/doc/log/log_201608040122LiuYiMin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18E9A8B8-BD07-4A7D-8E0C-4BD9AE6607CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77A26CAE-B439-45F2-BC95-12ACF3B53B25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>第一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,33 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00-17:01</t>
-  </si>
-  <si>
-    <t>13:00-17:02</t>
-  </si>
-  <si>
-    <t>13:00-17:03</t>
-  </si>
-  <si>
-    <t>13:00-17:04</t>
-  </si>
-  <si>
-    <t>13:00-17:05</t>
-  </si>
-  <si>
-    <t>13:00-17:06</t>
-  </si>
-  <si>
-    <t>13:00-17:07</t>
-  </si>
-  <si>
-    <t>13:00-17:08</t>
-  </si>
-  <si>
-    <t>13:00-17:09</t>
-  </si>
-  <si>
     <t>service层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +244,14 @@
   </si>
   <si>
     <t>总体架构说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,15 +297,12 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -332,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,327 +603,376 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -959,55 +989,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1017,314 +998,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF3C2FC-2ACD-421C-AD58-A588D7902C75}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43191</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43237</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43265</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43271</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43272</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>43273</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>43274</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43275</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>43274</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>43276</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>43277</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>43278</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>43279</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>43275</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43284</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>43276</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43287</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>43277</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>43278</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>43279</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>43284</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+  <mergeCells count="67">
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1340,41 +1388,16 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
